--- a/DATA/collate_cultivar_data_30_percent/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data_30_percent/data/projected_weekly_data.xlsx
@@ -3066,7 +3066,7 @@
         <v>189</v>
       </c>
       <c r="D191">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3080,7 +3080,7 @@
         <v>190</v>
       </c>
       <c r="D192">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3094,7 +3094,7 @@
         <v>191</v>
       </c>
       <c r="D193">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>192</v>
       </c>
       <c r="D194">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3122,7 +3122,7 @@
         <v>193</v>
       </c>
       <c r="D195">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>194</v>
       </c>
       <c r="D196">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>195</v>
       </c>
       <c r="D197">
-        <v>0.4475083</v>
+        <v>0.4475084</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>203</v>
       </c>
       <c r="D205">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>204</v>
       </c>
       <c r="D206">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>205</v>
       </c>
       <c r="D207">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>206</v>
       </c>
       <c r="D208">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>207</v>
       </c>
       <c r="D209">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>208</v>
       </c>
       <c r="D210">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>209</v>
       </c>
       <c r="D211">
-        <v>0.4540247</v>
+        <v>0.4540248</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>210</v>
       </c>
       <c r="D212">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>211</v>
       </c>
       <c r="D213">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>212</v>
       </c>
       <c r="D214">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>213</v>
       </c>
       <c r="D215">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>214</v>
       </c>
       <c r="D216">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>215</v>
       </c>
       <c r="D217">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>216</v>
       </c>
       <c r="D218">
-        <v>0.4558112</v>
+        <v>0.4558115</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>217</v>
       </c>
       <c r="D219">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>218</v>
       </c>
       <c r="D220">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>219</v>
       </c>
       <c r="D221">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>220</v>
       </c>
       <c r="D222">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>221</v>
       </c>
       <c r="D223">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>222</v>
       </c>
       <c r="D224">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>223</v>
       </c>
       <c r="D225">
-        <v>0.4570849</v>
+        <v>0.4570859</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>224</v>
       </c>
       <c r="D226">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>225</v>
       </c>
       <c r="D227">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>226</v>
       </c>
       <c r="D228">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>227</v>
       </c>
       <c r="D229">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>228</v>
       </c>
       <c r="D230">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>229</v>
       </c>
       <c r="D231">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>230</v>
       </c>
       <c r="D232">
-        <v>0.4578364</v>
+        <v>0.4578388</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>231</v>
       </c>
       <c r="D233">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>232</v>
       </c>
       <c r="D234">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>233</v>
       </c>
       <c r="D235">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>234</v>
       </c>
       <c r="D236">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>235</v>
       </c>
       <c r="D237">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>236</v>
       </c>
       <c r="D238">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>237</v>
       </c>
       <c r="D239">
-        <v>0.457762</v>
+        <v>0.4577675</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>238</v>
       </c>
       <c r="D240">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>239</v>
       </c>
       <c r="D241">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>240</v>
       </c>
       <c r="D242">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>241</v>
       </c>
       <c r="D243">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>242</v>
       </c>
       <c r="D244">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>243</v>
       </c>
       <c r="D245">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>244</v>
       </c>
       <c r="D246">
-        <v>0.4563156</v>
+        <v>0.4563254</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>245</v>
       </c>
       <c r="D247">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>246</v>
       </c>
       <c r="D248">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>247</v>
       </c>
       <c r="D249">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>248</v>
       </c>
       <c r="D250">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>249</v>
       </c>
       <c r="D251">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>250</v>
       </c>
       <c r="D252">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>251</v>
       </c>
       <c r="D253">
-        <v>0.4528247</v>
+        <v>0.4528366</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>252</v>
       </c>
       <c r="D254">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>253</v>
       </c>
       <c r="D255">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>254</v>
       </c>
       <c r="D256">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>255</v>
       </c>
       <c r="D257">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>256</v>
       </c>
       <c r="D258">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>257</v>
       </c>
       <c r="D259">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>258</v>
       </c>
       <c r="D260">
-        <v>0.446643</v>
+        <v>0.4466419</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>259</v>
       </c>
       <c r="D261">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>260</v>
       </c>
       <c r="D262">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>261</v>
       </c>
       <c r="D263">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>262</v>
       </c>
       <c r="D264">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>263</v>
       </c>
       <c r="D265">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>264</v>
       </c>
       <c r="D266">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>265</v>
       </c>
       <c r="D267">
-        <v>0.4372791</v>
+        <v>0.4372199</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>266</v>
       </c>
       <c r="D268">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>267</v>
       </c>
       <c r="D269">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>268</v>
       </c>
       <c r="D270">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>269</v>
       </c>
       <c r="D271">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>270</v>
       </c>
       <c r="D272">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>271</v>
       </c>
       <c r="D273">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>272</v>
       </c>
       <c r="D274">
-        <v>0.4244553</v>
+        <v>0.4242395</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>273</v>
       </c>
       <c r="D275">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>274</v>
       </c>
       <c r="D276">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="D277">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>276</v>
       </c>
       <c r="D278">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>277</v>
       </c>
       <c r="D279">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>278</v>
       </c>
       <c r="D280">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>279</v>
       </c>
       <c r="D281">
-        <v>0.4080877</v>
+        <v>0.407544</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>280</v>
       </c>
       <c r="D282">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>281</v>
       </c>
       <c r="D283">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>282</v>
       </c>
       <c r="D284">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>283</v>
       </c>
       <c r="D285">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>284</v>
       </c>
       <c r="D286">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>285</v>
       </c>
       <c r="D287">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>286</v>
       </c>
       <c r="D288">
-        <v>0.3882085</v>
+        <v>0.3870957</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>287</v>
       </c>
       <c r="D289">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>288</v>
       </c>
       <c r="D290">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>289</v>
       </c>
       <c r="D291">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>290</v>
       </c>
       <c r="D292">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>291</v>
       </c>
       <c r="D293">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>292</v>
       </c>
       <c r="D294">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>293</v>
       </c>
       <c r="D295">
-        <v>0.3648597</v>
+        <v>0.3629114</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>294</v>
       </c>
       <c r="D296">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>295</v>
       </c>
       <c r="D297">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>296</v>
       </c>
       <c r="D298">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>297</v>
       </c>
       <c r="D299">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>298</v>
       </c>
       <c r="D300">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>299</v>
       </c>
       <c r="D301">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>300</v>
       </c>
       <c r="D302">
-        <v>0.3380078</v>
+        <v>0.3350239</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>301</v>
       </c>
       <c r="D303">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>302</v>
       </c>
       <c r="D304">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>303</v>
       </c>
       <c r="D305">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>304</v>
       </c>
       <c r="D306">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>305</v>
       </c>
       <c r="D307">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>306</v>
       </c>
       <c r="D308">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>307</v>
       </c>
       <c r="D309">
-        <v>0.3075846</v>
+        <v>0.3035512</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>308</v>
       </c>
       <c r="D310">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>309</v>
       </c>
       <c r="D311">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>310</v>
       </c>
       <c r="D312">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>311</v>
       </c>
       <c r="D313">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>312</v>
       </c>
       <c r="D314">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>313</v>
       </c>
       <c r="D315">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>314</v>
       </c>
       <c r="D316">
-        <v>0.2737938</v>
+        <v>0.2689831</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>315</v>
       </c>
       <c r="D317">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>316</v>
       </c>
       <c r="D318">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>317</v>
       </c>
       <c r="D319">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>318</v>
       </c>
       <c r="D320">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>319</v>
       </c>
       <c r="D321">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>320</v>
       </c>
       <c r="D322">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>321</v>
       </c>
       <c r="D323">
-        <v>0.2376885</v>
+        <v>0.2326604</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>322</v>
       </c>
       <c r="D324">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>323</v>
       </c>
       <c r="D325">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>324</v>
       </c>
       <c r="D326">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>325</v>
       </c>
       <c r="D327">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>326</v>
       </c>
       <c r="D328">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>327</v>
       </c>
       <c r="D329">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>328</v>
       </c>
       <c r="D330">
-        <v>0.2016028</v>
+        <v>0.1970376</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>329</v>
       </c>
       <c r="D331">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>330</v>
       </c>
       <c r="D332">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>331</v>
       </c>
       <c r="D333">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>332</v>
       </c>
       <c r="D334">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>333</v>
       </c>
       <c r="D335">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>334</v>
       </c>
       <c r="D336">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>335</v>
       </c>
       <c r="D337">
-        <v>0.1687238</v>
+        <v>0.1651363</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>336</v>
       </c>
       <c r="D338">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>337</v>
       </c>
       <c r="D339">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>338</v>
       </c>
       <c r="D340">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>339</v>
       </c>
       <c r="D341">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>340</v>
       </c>
       <c r="D342">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>341</v>
       </c>
       <c r="D343">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>342</v>
       </c>
       <c r="D344">
-        <v>0.1417462</v>
+        <v>0.1392905</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>343</v>
       </c>
       <c r="D345">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5236,7 +5236,7 @@
         <v>344</v>
       </c>
       <c r="D346">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5250,7 +5250,7 @@
         <v>345</v>
       </c>
       <c r="D347">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5264,7 +5264,7 @@
         <v>346</v>
       </c>
       <c r="D348">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>347</v>
       </c>
       <c r="D349">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5292,7 +5292,7 @@
         <v>348</v>
       </c>
       <c r="D350">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5306,7 +5306,7 @@
         <v>349</v>
       </c>
       <c r="D351">
-        <v>0.1217202</v>
+        <v>0.1202327</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>350</v>
       </c>
       <c r="D352">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5334,7 +5334,7 @@
         <v>351</v>
       </c>
       <c r="D353">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5348,7 +5348,7 @@
         <v>352</v>
       </c>
       <c r="D354">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>353</v>
       </c>
       <c r="D355">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>354</v>
       </c>
       <c r="D356">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5390,7 +5390,7 @@
         <v>355</v>
       </c>
       <c r="D357">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>356</v>
       </c>
       <c r="D358">
-        <v>0.1080485</v>
+        <v>0.1072353</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>357</v>
       </c>
       <c r="D359">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5432,7 +5432,7 @@
         <v>358</v>
       </c>
       <c r="D360">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5446,7 +5446,7 @@
         <v>359</v>
       </c>
       <c r="D361">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>360</v>
       </c>
       <c r="D362">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>361</v>
       </c>
       <c r="D363">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>362</v>
       </c>
       <c r="D364">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5502,7 +5502,7 @@
         <v>363</v>
       </c>
       <c r="D365">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5516,7 +5516,7 @@
         <v>364</v>
       </c>
       <c r="D366">
-        <v>0.0988581</v>
+        <v>0.098468</v>
       </c>
     </row>
   </sheetData>
